--- a/Game upgrademaths.xlsx
+++ b/Game upgrademaths.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
   <si>
     <t>upgrade</t>
   </si>
@@ -335,12 +335,27 @@
     <t>Resets everything except for: achievements, reincarnation bonuses, log of max income &amp;&amp; reincarnation requirement, notoriety = (10000*10^r)?</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>high prio</t>
+  </si>
+  <si>
+    <t>low prio</t>
+  </si>
+  <si>
     <t>Buffs</t>
   </si>
   <si>
     <t>lowers tier 2 building cost mult and increases tier 1 income</t>
   </si>
   <si>
+    <t>Figure out a better calculation for notoriety requirement and buffs</t>
+  </si>
+  <si>
     <t>saves</t>
   </si>
   <si>
@@ -374,7 +389,7 @@
     <t>click bug</t>
   </si>
   <si>
-    <t>Not tested with new fix, test if works. boost = cpsec * 0.02 + bpower</t>
+    <t>Fixed?</t>
   </si>
   <si>
     <t>Big numbers</t>
@@ -383,6 +398,9 @@
     <t>Scientific numbers etc. ex. 52e25 or 1oc?</t>
   </si>
   <si>
+    <t>settings setting for choosing between "3.5T" or "3.5e3"</t>
+  </si>
+  <si>
     <t>custom tooltip</t>
   </si>
   <si>
@@ -410,6 +428,18 @@
     <t>Gem fight</t>
   </si>
   <si>
+    <t>Debuff icons</t>
+  </si>
+  <si>
+    <t>Can use relevant upgrade icons, but need a prettier border. kobold hunger also needs custom icon</t>
+  </si>
+  <si>
+    <t>Reincarnation</t>
+  </si>
+  <si>
+    <t>Make prettier, add label for requirement, effects on page</t>
+  </si>
+  <si>
     <t>sprites</t>
   </si>
   <si>
@@ -428,6 +458,12 @@
     <t>Only if everything else done in time</t>
   </si>
   <si>
+    <t>Notoriety &amp; pat icon</t>
+  </si>
+  <si>
+    <t>pat exists, but needs upgrading</t>
+  </si>
+  <si>
     <t>Upgrade sprites</t>
   </si>
   <si>
@@ -446,6 +482,9 @@
     <t>working hours</t>
   </si>
   <si>
+    <t>reincarnation icon</t>
+  </si>
+  <si>
     <t>drag and drop</t>
   </si>
   <si>
@@ -464,17 +503,53 @@
     <t>Was order problem with reloading, fixed. Double check that current way doesn't have other unintended side effects</t>
   </si>
   <si>
-    <t>Selling buildings</t>
-  </si>
-  <si>
-    <t>button, that switches purchasing to selling. building border to red maybe? x10... etc. choice to selling/buying</t>
+    <t>multipurchase</t>
+  </si>
+  <si>
+    <t>shifting</t>
+  </si>
+  <si>
+    <t>holding certain keys changes purchasing to multipurchase. Shift for x10</t>
+  </si>
+  <si>
+    <t>tooltip</t>
+  </si>
+  <si>
+    <t>tooltip show that you can do this AND current cost of x10 purchase</t>
+  </si>
+  <si>
+    <t>Logbook</t>
+  </si>
+  <si>
+    <t>number crunching, shows highest income, gold, buildings built etc.</t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>goals feel good</t>
+  </si>
+  <si>
+    <t>Bug testing</t>
+  </si>
+  <si>
+    <t>Upgrades</t>
+  </si>
+  <si>
+    <t>Everything not checked</t>
+  </si>
+  <si>
+    <t>Late game number scaling</t>
+  </si>
+  <si>
+    <t>Not checked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -492,8 +567,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +594,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFA2C4C9"/>
       </patternFill>
     </fill>
   </fills>
@@ -539,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -577,13 +663,31 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1460,258 +1564,367 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>108</v>
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="A14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>125</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
+      <c r="B17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12" t="s">
-        <v>130</v>
-      </c>
+      <c r="A18" s="21"/>
+      <c r="B18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="21"/>
     </row>
     <row r="19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12" t="s">
-        <v>131</v>
+      <c r="A19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>134</v>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>134</v>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>137</v>
+      <c r="A22" s="21"/>
+      <c r="B22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="14"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="14"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>149</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>151</v>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="21"/>
+      <c r="B39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Game upgrademaths.xlsx
+++ b/Game upgrademaths.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="182">
   <si>
     <t>upgrade</t>
   </si>
@@ -32,12 +32,21 @@
     <t>notes</t>
   </si>
   <si>
+    <t>tooltipping</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
     <t>gold+1</t>
   </si>
   <si>
     <t>0.5-&gt;1/s</t>
   </si>
   <si>
+    <t>done</t>
+  </si>
+  <si>
     <t>gold+2</t>
   </si>
   <si>
@@ -438,6 +447,12 @@
   </si>
   <si>
     <t>Make prettier, add label for requirement, effects on page</t>
+  </si>
+  <si>
+    <t>Custom font for game</t>
+  </si>
+  <si>
+    <t>Free ones available online? See if you find a good one. No need to go fancy and start linearting it yourself</t>
   </si>
   <si>
     <t>sprites</t>
@@ -645,19 +660,17 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -683,7 +696,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -933,10 +948,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>5.0</v>
@@ -949,12 +970,16 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>10.0</v>
@@ -967,12 +992,16 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>50.0</v>
@@ -985,10 +1014,14 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>75.0</v>
@@ -1001,12 +1034,16 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>100.0</v>
@@ -1019,10 +1056,14 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>10.0</v>
@@ -1035,12 +1076,16 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>25.0</v>
@@ -1053,10 +1098,14 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>50.0</v>
@@ -1069,10 +1118,14 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>100.0</v>
@@ -1085,12 +1138,16 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4">
         <v>10.0</v>
@@ -1103,10 +1160,14 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4">
         <v>25.0</v>
@@ -1119,10 +1180,14 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4">
         <v>50.0</v>
@@ -1135,10 +1200,14 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4">
         <v>100.0</v>
@@ -1151,13 +1220,17 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
         <v>3000.0</v>
@@ -1165,372 +1238,460 @@
       <c r="D15" s="5">
         <v>2.5</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4">
         <v>12500.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
         <v>80000.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4">
         <v>500000.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4">
         <v>150000.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3">
         <v>5.0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F20" s="6"/>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3">
         <v>10.0</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3">
         <v>25.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3">
         <v>5.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3">
         <v>10.0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="F24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B25" s="3">
         <v>25.0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="F25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>5.0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3">
         <v>10.0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3">
         <v>25.0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3">
         <v>5.0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="6"/>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B30" s="3">
         <v>10.0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="6"/>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3">
         <v>25.0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4">
         <v>250.0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4">
         <v>3000.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="4">
+        <v>250000.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="4">
-        <v>25000.0</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>92</v>
+      <c r="E34" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C35" s="3">
         <v>250000.0</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>95</v>
+      <c r="D35" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3">
         <v>9500000.0</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>100</v>
+      <c r="D36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="F36" s="6"/>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1554,377 +1715,386 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>131</v>
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21"/>
-      <c r="B18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="21"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21"/>
-      <c r="B22" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>139</v>
+      <c r="A22" s="7"/>
+      <c r="B22" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21"/>
-      <c r="B23" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>141</v>
+      <c r="A23" s="7"/>
+      <c r="B23" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>144</v>
+      <c r="A24" s="7"/>
+      <c r="B24" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="B25" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16"/>
+        <v>153</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="B29" s="17" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="C29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="16"/>
       <c r="B32" s="17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="21"/>
-      <c r="B34" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="21"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="16"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="C36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>162</v>
-      </c>
+      <c r="A37" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="A38" s="6"/>
       <c r="B38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21"/>
-      <c r="B39" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>167</v>
+      <c r="A39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="16"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="22" t="s">
-        <v>171</v>
-      </c>
+      <c r="A41" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="16"/>
     </row>
     <row r="42">
-      <c r="A42" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>174</v>
+      <c r="A42" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="16"/>
+      <c r="A43" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="B43" s="17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
